--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,37 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\FoBObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\FoBObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18C70B0-7E8B-404D-AA7A-9AFA770E4B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="23955" windowHeight="12840"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Residential" sheetId="2" r:id="rId2"/>
     <sheet name="Commercial" sheetId="3" r:id="rId3"/>
     <sheet name="Output by Industry" sheetId="5" r:id="rId4"/>
-    <sheet name="FoBObE" sheetId="4" r:id="rId5"/>
+    <sheet name="Texas Notes" sheetId="6" r:id="rId5"/>
+    <sheet name="Residential Texas" sheetId="7" r:id="rId6"/>
+    <sheet name="Commercial Texas" sheetId="8" r:id="rId7"/>
+    <sheet name="Output by Industry Texas" sheetId="9" r:id="rId8"/>
+    <sheet name="FoBObE" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="outputfrac_bio" localSheetId="7">'Output by Industry Texas'!$A$9</definedName>
     <definedName name="outputfrac_bio">'Output by Industry'!$A$9</definedName>
+    <definedName name="outputfrac_coal" localSheetId="7">'Output by Industry Texas'!$A$7</definedName>
     <definedName name="outputfrac_coal">'Output by Industry'!$A$7</definedName>
+    <definedName name="outputfrac_elec" localSheetId="7">'Output by Industry Texas'!$A$6</definedName>
     <definedName name="outputfrac_elec">'Output by Industry'!$A$6</definedName>
+    <definedName name="outputfrac_ngps" localSheetId="7">'Output by Industry Texas'!$A$8</definedName>
     <definedName name="outputfrac_ngps">'Output by Industry'!$A$8</definedName>
+    <definedName name="outputfrac_nonenergy" localSheetId="7">'Output by Industry Texas'!$A$5</definedName>
     <definedName name="outputfrac_nonenergy">'Output by Industry'!$A$5</definedName>
+    <definedName name="outputfrac_other" localSheetId="7">'Output by Industry Texas'!$A$10</definedName>
     <definedName name="outputfrac_other">'Output by Industry'!$A$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
   <si>
     <t>Sources:</t>
   </si>
@@ -280,12 +301,87 @@
   </si>
   <si>
     <t>Ownership by Cash Flow Entity (dimensionless)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Table CE1.4: consumption and expeditures in the South https://www.eia.gov/consumption/residential/data/2015/index.php?view=consumption#summary</t>
+  </si>
+  <si>
+    <t>Public Housing Calculation</t>
+  </si>
+  <si>
+    <t>1.2 Million public housing units in Texas</t>
+  </si>
+  <si>
+    <t>https://texaslawhelp.org/article/public-housing-general-information</t>
+  </si>
+  <si>
+    <t>6.8 Million renters in Texas</t>
+  </si>
+  <si>
+    <t>https://www.governing.com/gov-data/census/city-renter-population-housing-statistics.html</t>
+  </si>
+  <si>
+    <t>assume that public housing is 1.2/6.8 = 17.5% of the rental market</t>
+  </si>
+  <si>
+    <t>New data does not break renters down into public vs. not public. Assume that they are both equal to "Rented"</t>
+  </si>
+  <si>
+    <t>for the Residental tab, I recalculated their numbers</t>
+  </si>
+  <si>
+    <t>updated them from 2005 to 2015</t>
+  </si>
+  <si>
+    <t>updated them using numbers for the South instead of the whole US</t>
+  </si>
+  <si>
+    <t>For WSC region (TX, AR, OK, LA)</t>
+  </si>
+  <si>
+    <t>CBECS area (million sf)</t>
+  </si>
+  <si>
+    <t>area that is government owned (million sf)</t>
+  </si>
+  <si>
+    <t>Validation: for All US Regions</t>
+  </si>
+  <si>
+    <t>gov%</t>
+  </si>
+  <si>
+    <t>2012 CBECS for the WSC region</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/consumption/commercial/data/2012/index.php?view=characteristics</t>
+  </si>
+  <si>
+    <t>Updated the Residential and Commercial tabs using more recent data that was specific to the South or WestSouthCentral regions</t>
+  </si>
+  <si>
+    <t>Updated the "output_shares_by_industry.xlsx" file in the InputFiles folder. That data is now in the "Output by Industry Texas" tab</t>
+  </si>
+  <si>
+    <t>for the Commerical tab, I recalculated their numbers</t>
+  </si>
+  <si>
+    <t>updated them from 2005 to 2012</t>
+  </si>
+  <si>
+    <t>updated them using numbers for the WestSoutchCentral instead of the whole US</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -293,7 +389,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +453,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +483,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +656,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,6 +766,25 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -685,9 +819,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -785,6 +921,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -820,6 +973,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -995,11 +1165,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1253,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="59" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1129,8 +1299,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1138,10 +1308,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1158,20 +1330,20 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1199,60 +1371,60 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="68"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1414,85 +1586,85 @@
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="62"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1638,10 +1810,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1973,24 +2147,24 @@
       <c r="A16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="70"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="81"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -2036,10 +2210,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2119,13 +2295,981 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79304C6-D7BB-4DC8-99AF-FBCFB8DAB20B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38617E42-AFD0-45A1-BD41-1B5DF9CDD014}">
+  <dimension ref="A1:V36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="D34:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="16">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="18">
+        <v>0.74902100000000005</v>
+      </c>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="16">
+        <v>38.1</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="18">
+        <f>1-P7</f>
+        <v>0.25097899999999995</v>
+      </c>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="65">
+        <f>D8</f>
+        <v>38.1</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="61">
+        <f>P8*M22</f>
+        <v>4.392132499999999E-2</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="65">
+        <f>D8</f>
+        <v>38.1</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="62">
+        <f>P8*(1-M22)</f>
+        <v>0.20705767499999994</v>
+      </c>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L19" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="str">
+        <f>A6</f>
+        <v>Ownership</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f t="shared" ref="B21:B23" si="0">A7</f>
+        <v>Owned</v>
+      </c>
+      <c r="C21" s="26">
+        <f>(P7/D7)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
+        <v>0.76566529134424544</v>
+      </c>
+      <c r="L21" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Rented</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Public Housing</v>
+      </c>
+      <c r="C23" s="26">
+        <f>(P9/D9)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
+        <v>4.1008574014757049E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="str">
+        <f>A10</f>
+        <v>Not Public Housing</v>
+      </c>
+      <c r="C24" s="26">
+        <f>(P10/D10)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
+        <v>0.19332613464099752</v>
+      </c>
+      <c r="L24" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="26">
+        <f>SUM(C21:C24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="27">
+        <f>1-G30</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="32">
+        <f>C23</f>
+        <v>4.1008574014757049E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="33">
+        <f>C24*G31</f>
+        <v>4.8331533660249379E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="34">
+        <f>C21+(C24*G30)</f>
+        <v>0.91065989232499356</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B13:Q15"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:Q6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" location="summary" display="https://www.eia.gov/consumption/residential/data/2015/index.php?view=consumption#summary" xr:uid="{94716F03-C1D8-49EC-8E93-A750813A6D60}"/>
+    <hyperlink ref="L19" r:id="rId2" xr:uid="{9CDCA3C2-EBD2-4918-9C4C-2253F9CDEC0D}"/>
+    <hyperlink ref="L20" r:id="rId3" xr:uid="{F5880D06-E0B4-4B9C-A256-0B5C8ABFEC94}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329AEAC7-F1A5-4DD7-AB84-1895C33C9D40}">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19">
+        <v>94.5</v>
+      </c>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="68">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="32">
+        <f>J21</f>
+        <v>0.25502645502645505</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20">
+        <v>24.1</v>
+      </c>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="R20" s="68">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="33">
+        <f>1-C20</f>
+        <v>0.74497354497354495</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21">
+        <f>J20/J19</f>
+        <v>0.25502645502645505</v>
+      </c>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="68">
+        <f>R20/R19</f>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="34">
+        <v>0</v>
+      </c>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F18:J18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{E28FDE3B-275D-4AE3-BAA9-D243E2303A05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE0B56-6C56-409A-92E4-27600D101DAE}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>0.93559717276621335</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <v>7.4402497405008901E-3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <v>2.6206868640468771E-3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
+        <v>5.3133437532420051E-2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <v>1.2084530968188268E-3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2136,7 +3280,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -2154,16 +3298,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="58">
-        <f>Residential!C34</f>
-        <v>1.9289972368294446E-2</v>
+        <f>'Residential Texas'!C34</f>
+        <v>4.1008574014757049E-2</v>
       </c>
       <c r="C2" s="58">
         <f>B2</f>
-        <v>1.9289972368294446E-2</v>
+        <v>4.1008574014757049E-2</v>
       </c>
       <c r="D2" s="58">
-        <f>Commercial!C20</f>
-        <v>0.23714188688565077</v>
+        <f>'Commercial Texas'!C20</f>
+        <v>0.25502645502645505</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2171,16 +3315,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="58">
-        <f>Residential!C35</f>
-        <v>3.6530988312536733E-2</v>
+        <f>'Residential Texas'!C35</f>
+        <v>4.8331533660249379E-2</v>
       </c>
       <c r="C3" s="58">
         <f t="shared" ref="C3:C10" si="0">B3</f>
-        <v>3.6530988312536733E-2</v>
+        <v>4.8331533660249379E-2</v>
       </c>
       <c r="D3" s="58">
-        <f>Commercial!$C$21*outputfrac_nonenergy</f>
-        <v>0.71113495503257274</v>
+        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_nonenergy</f>
+        <v>0.6969951424628722</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,12 +3332,12 @@
         <v>61</v>
       </c>
       <c r="B4" s="58">
-        <f>Residential!C36</f>
-        <v>0.94417903931916869</v>
+        <f>'Residential Texas'!C36</f>
+        <v>0.91065989232499356</v>
       </c>
       <c r="C4" s="58">
         <f t="shared" si="0"/>
-        <v>0.94417903931916869</v>
+        <v>0.91065989232499356</v>
       </c>
       <c r="D4">
         <f>Commercial!C22</f>
@@ -2227,8 +3371,8 @@
         <v>0</v>
       </c>
       <c r="D6" s="58">
-        <f>Commercial!$C$21*outputfrac_elec</f>
-        <v>1.1817324639815762E-2</v>
+        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_elec</f>
+        <v>5.5427892246694465E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,8 +3387,8 @@
         <v>0</v>
       </c>
       <c r="D7" s="58">
-        <f>Commercial!$C$21*outputfrac_coal</f>
-        <v>1.6681065025235112E-3</v>
+        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_coal</f>
+        <v>1.9523423833746048E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,8 +3403,8 @@
         <v>0</v>
       </c>
       <c r="D8" s="58">
-        <f>Commercial!$C$21*outputfrac_ngps</f>
-        <v>3.7718097726775229E-2</v>
+        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_ngps</f>
+        <v>3.958300531515737E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,8 +3419,8 @@
         <v>0</v>
       </c>
       <c r="D9" s="58">
-        <f>Commercial!$C$21*outputfrac_bio</f>
-        <v>5.196292126620005E-4</v>
+        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_bio</f>
+        <v>9.0026558747137995E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="57">
-        <f>Commercial!$C$21*outputfrac_other</f>
+        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_other</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,58 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\FoBObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\FoBObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18C70B0-7E8B-404D-AA7A-9AFA770E4B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="23955" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Residential" sheetId="2" r:id="rId2"/>
     <sheet name="Commercial" sheetId="3" r:id="rId3"/>
     <sheet name="Output by Industry" sheetId="5" r:id="rId4"/>
-    <sheet name="Texas Notes" sheetId="6" r:id="rId5"/>
-    <sheet name="Residential Texas" sheetId="7" r:id="rId6"/>
-    <sheet name="Commercial Texas" sheetId="8" r:id="rId7"/>
-    <sheet name="Output by Industry Texas" sheetId="9" r:id="rId8"/>
-    <sheet name="FoBObE" sheetId="4" r:id="rId9"/>
+    <sheet name="FoBObE" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="outputfrac_bio" localSheetId="7">'Output by Industry Texas'!$A$9</definedName>
     <definedName name="outputfrac_bio">'Output by Industry'!$A$9</definedName>
-    <definedName name="outputfrac_coal" localSheetId="7">'Output by Industry Texas'!$A$7</definedName>
     <definedName name="outputfrac_coal">'Output by Industry'!$A$7</definedName>
-    <definedName name="outputfrac_elec" localSheetId="7">'Output by Industry Texas'!$A$6</definedName>
     <definedName name="outputfrac_elec">'Output by Industry'!$A$6</definedName>
-    <definedName name="outputfrac_ngps" localSheetId="7">'Output by Industry Texas'!$A$8</definedName>
     <definedName name="outputfrac_ngps">'Output by Industry'!$A$8</definedName>
-    <definedName name="outputfrac_nonenergy" localSheetId="7">'Output by Industry Texas'!$A$5</definedName>
     <definedName name="outputfrac_nonenergy">'Output by Industry'!$A$5</definedName>
-    <definedName name="outputfrac_other" localSheetId="7">'Output by Industry Texas'!$A$10</definedName>
     <definedName name="outputfrac_other">'Output by Industry'!$A$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>Sources:</t>
   </si>
@@ -301,87 +280,12 @@
   </si>
   <si>
     <t>Ownership by Cash Flow Entity (dimensionless)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Table CE1.4: consumption and expeditures in the South https://www.eia.gov/consumption/residential/data/2015/index.php?view=consumption#summary</t>
-  </si>
-  <si>
-    <t>Public Housing Calculation</t>
-  </si>
-  <si>
-    <t>1.2 Million public housing units in Texas</t>
-  </si>
-  <si>
-    <t>https://texaslawhelp.org/article/public-housing-general-information</t>
-  </si>
-  <si>
-    <t>6.8 Million renters in Texas</t>
-  </si>
-  <si>
-    <t>https://www.governing.com/gov-data/census/city-renter-population-housing-statistics.html</t>
-  </si>
-  <si>
-    <t>assume that public housing is 1.2/6.8 = 17.5% of the rental market</t>
-  </si>
-  <si>
-    <t>New data does not break renters down into public vs. not public. Assume that they are both equal to "Rented"</t>
-  </si>
-  <si>
-    <t>for the Residental tab, I recalculated their numbers</t>
-  </si>
-  <si>
-    <t>updated them from 2005 to 2015</t>
-  </si>
-  <si>
-    <t>updated them using numbers for the South instead of the whole US</t>
-  </si>
-  <si>
-    <t>For WSC region (TX, AR, OK, LA)</t>
-  </si>
-  <si>
-    <t>CBECS area (million sf)</t>
-  </si>
-  <si>
-    <t>area that is government owned (million sf)</t>
-  </si>
-  <si>
-    <t>Validation: for All US Regions</t>
-  </si>
-  <si>
-    <t>gov%</t>
-  </si>
-  <si>
-    <t>2012 CBECS for the WSC region</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/consumption/commercial/data/2012/index.php?view=characteristics</t>
-  </si>
-  <si>
-    <t>Updated the Residential and Commercial tabs using more recent data that was specific to the South or WestSouthCentral regions</t>
-  </si>
-  <si>
-    <t>Updated the "output_shares_by_industry.xlsx" file in the InputFiles folder. That data is now in the "Output by Industry Texas" tab</t>
-  </si>
-  <si>
-    <t>for the Commerical tab, I recalculated their numbers</t>
-  </si>
-  <si>
-    <t>updated them from 2005 to 2012</t>
-  </si>
-  <si>
-    <t>updated them using numbers for the WestSoutchCentral instead of the whole US</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -389,7 +293,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,15 +357,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,18 +380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +541,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -766,64 +651,43 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -921,23 +785,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -973,23 +820,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1165,11 +995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1083,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="71" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1299,8 +1129,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1308,12 +1138,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1330,20 +1158,20 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1371,60 +1199,60 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="76" t="s">
+      <c r="O5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="68"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1586,85 +1414,85 @@
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="62"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1810,12 +1638,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2147,24 +1973,24 @@
       <c r="A16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="81"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="70"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -2210,12 +2036,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2295,981 +2119,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79304C6-D7BB-4DC8-99AF-FBCFB8DAB20B}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38617E42-AFD0-45A1-BD41-1B5DF9CDD014}">
-  <dimension ref="A1:V36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="D34:E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="16">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="18">
-        <v>0.74902100000000005</v>
-      </c>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="16">
-        <v>38.1</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="18">
-        <f>1-P7</f>
-        <v>0.25097899999999995</v>
-      </c>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="65">
-        <f>D8</f>
-        <v>38.1</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="61">
-        <f>P8*M22</f>
-        <v>4.392132499999999E-2</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="65">
-        <f>D8</f>
-        <v>38.1</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="62">
-        <f>P8*(1-M22)</f>
-        <v>0.20705767499999994</v>
-      </c>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L19" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="str">
-        <f>A6</f>
-        <v>Ownership</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
-        <f t="shared" ref="B21:B23" si="0">A7</f>
-        <v>Owned</v>
-      </c>
-      <c r="C21" s="26">
-        <f>(P7/D7)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
-        <v>0.76566529134424544</v>
-      </c>
-      <c r="L21" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Rented</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Public Housing</v>
-      </c>
-      <c r="C23" s="26">
-        <f>(P9/D9)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
-        <v>4.1008574014757049E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="str">
-        <f>A10</f>
-        <v>Not Public Housing</v>
-      </c>
-      <c r="C24" s="26">
-        <f>(P10/D10)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
-        <v>0.19332613464099752</v>
-      </c>
-      <c r="L24" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="26">
-        <f>SUM(C21:C24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="27">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="27">
-        <f>1-G30</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="32">
-        <f>C23</f>
-        <v>4.1008574014757049E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="33">
-        <f>C24*G31</f>
-        <v>4.8331533660249379E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="34">
-        <f>C21+(C24*G30)</f>
-        <v>0.91065989232499356</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B13:Q15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:Q6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" location="summary" display="https://www.eia.gov/consumption/residential/data/2015/index.php?view=consumption#summary" xr:uid="{94716F03-C1D8-49EC-8E93-A750813A6D60}"/>
-    <hyperlink ref="L19" r:id="rId2" xr:uid="{9CDCA3C2-EBD2-4918-9C4C-2253F9CDEC0D}"/>
-    <hyperlink ref="L20" r:id="rId3" xr:uid="{F5880D06-E0B4-4B9C-A256-0B5C8ABFEC94}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329AEAC7-F1A5-4DD7-AB84-1895C33C9D40}">
-  <dimension ref="A1:R23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19">
-        <v>94.5</v>
-      </c>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="R19" s="68">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="32">
-        <f>J21</f>
-        <v>0.25502645502645505</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20">
-        <v>24.1</v>
-      </c>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="R20" s="68">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="33">
-        <f>1-C20</f>
-        <v>0.74497354497354495</v>
-      </c>
-      <c r="I21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21">
-        <f>J20/J19</f>
-        <v>0.25502645502645505</v>
-      </c>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="R21" s="68">
-        <f>R20/R19</f>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="34">
-        <v>0</v>
-      </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F18:J18"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{E28FDE3B-275D-4AE3-BAA9-D243E2303A05}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE0B56-6C56-409A-92E4-27600D101DAE}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
-        <v>0.93559717276621335</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <v>7.4402497405008901E-3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <v>2.6206868640468771E-3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
-        <v>5.3133437532420051E-2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
-        <v>1.2084530968188268E-3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3280,7 +2136,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="55" t="s">
@@ -3298,16 +2154,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="58">
-        <f>'Residential Texas'!C34</f>
-        <v>4.1008574014757049E-2</v>
+        <f>Residential!C34</f>
+        <v>1.9289972368294446E-2</v>
       </c>
       <c r="C2" s="58">
         <f>B2</f>
-        <v>4.1008574014757049E-2</v>
+        <v>1.9289972368294446E-2</v>
       </c>
       <c r="D2" s="58">
-        <f>'Commercial Texas'!C20</f>
-        <v>0.25502645502645505</v>
+        <f>Commercial!C20</f>
+        <v>0.23714188688565077</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,16 +2171,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="58">
-        <f>'Residential Texas'!C35</f>
-        <v>4.8331533660249379E-2</v>
+        <f>Residential!C35</f>
+        <v>3.6530988312536733E-2</v>
       </c>
       <c r="C3" s="58">
         <f t="shared" ref="C3:C10" si="0">B3</f>
-        <v>4.8331533660249379E-2</v>
+        <v>3.6530988312536733E-2</v>
       </c>
       <c r="D3" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_nonenergy</f>
-        <v>0.6969951424628722</v>
+        <f>Commercial!$C$21*outputfrac_nonenergy</f>
+        <v>0.71113495503257274</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3332,12 +2188,12 @@
         <v>61</v>
       </c>
       <c r="B4" s="58">
-        <f>'Residential Texas'!C36</f>
-        <v>0.91065989232499356</v>
+        <f>Residential!C36</f>
+        <v>0.94417903931916869</v>
       </c>
       <c r="C4" s="58">
         <f t="shared" si="0"/>
-        <v>0.91065989232499356</v>
+        <v>0.94417903931916869</v>
       </c>
       <c r="D4">
         <f>Commercial!C22</f>
@@ -3371,8 +2227,8 @@
         <v>0</v>
       </c>
       <c r="D6" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_elec</f>
-        <v>5.5427892246694465E-3</v>
+        <f>Commercial!$C$21*outputfrac_elec</f>
+        <v>1.1817324639815762E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,8 +2243,8 @@
         <v>0</v>
       </c>
       <c r="D7" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_coal</f>
-        <v>1.9523423833746048E-3</v>
+        <f>Commercial!$C$21*outputfrac_coal</f>
+        <v>1.6681065025235112E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3403,8 +2259,8 @@
         <v>0</v>
       </c>
       <c r="D8" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_ngps</f>
-        <v>3.958300531515737E-2</v>
+        <f>Commercial!$C$21*outputfrac_ngps</f>
+        <v>3.7718097726775229E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,8 +2275,8 @@
         <v>0</v>
       </c>
       <c r="D9" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_bio</f>
-        <v>9.0026558747137995E-4</v>
+        <f>Commercial!$C$21*outputfrac_bio</f>
+        <v>5.196292126620005E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3435,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="57">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_other</f>
+        <f>Commercial!$C$21*outputfrac_other</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,41 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\FoBObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\bldgs\FoBObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18C70B0-7E8B-404D-AA7A-9AFA770E4B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D1B2A-0F82-4946-A7E8-65637F63812F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16455" yWindow="150" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Residential" sheetId="2" r:id="rId2"/>
     <sheet name="Commercial" sheetId="3" r:id="rId3"/>
-    <sheet name="Output by Industry" sheetId="5" r:id="rId4"/>
-    <sheet name="Texas Notes" sheetId="6" r:id="rId5"/>
-    <sheet name="Residential Texas" sheetId="7" r:id="rId6"/>
-    <sheet name="Commercial Texas" sheetId="8" r:id="rId7"/>
-    <sheet name="Output by Industry Texas" sheetId="9" r:id="rId8"/>
-    <sheet name="FoBObE" sheetId="4" r:id="rId9"/>
+    <sheet name="FoBObE" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="outputfrac_bio" localSheetId="7">'Output by Industry Texas'!$A$9</definedName>
-    <definedName name="outputfrac_bio">'Output by Industry'!$A$9</definedName>
-    <definedName name="outputfrac_coal" localSheetId="7">'Output by Industry Texas'!$A$7</definedName>
-    <definedName name="outputfrac_coal">'Output by Industry'!$A$7</definedName>
-    <definedName name="outputfrac_elec" localSheetId="7">'Output by Industry Texas'!$A$6</definedName>
-    <definedName name="outputfrac_elec">'Output by Industry'!$A$6</definedName>
-    <definedName name="outputfrac_ngps" localSheetId="7">'Output by Industry Texas'!$A$8</definedName>
-    <definedName name="outputfrac_ngps">'Output by Industry'!$A$8</definedName>
-    <definedName name="outputfrac_nonenergy" localSheetId="7">'Output by Industry Texas'!$A$5</definedName>
-    <definedName name="outputfrac_nonenergy">'Output by Industry'!$A$5</definedName>
-    <definedName name="outputfrac_other" localSheetId="7">'Output by Industry Texas'!$A$10</definedName>
-    <definedName name="outputfrac_other">'Output by Industry'!$A$10</definedName>
+    <definedName name="outputfrac_bio">#REF!</definedName>
+    <definedName name="outputfrac_coal">#REF!</definedName>
+    <definedName name="outputfrac_elec">#REF!</definedName>
+    <definedName name="outputfrac_ngps">#REF!</definedName>
+    <definedName name="outputfrac_nonenergy">#REF!</definedName>
+    <definedName name="outputfrac_other">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Sources:</t>
   </si>
@@ -234,60 +224,12 @@
     <t>foreign entities</t>
   </si>
   <si>
-    <t>nonenergy industries</t>
-  </si>
-  <si>
     <t>labor and consumers</t>
   </si>
   <si>
-    <t>electricity suppliers</t>
-  </si>
-  <si>
-    <t>coal suppliers</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum suppliers</t>
-  </si>
-  <si>
-    <t>biomass and biofuel suppliers</t>
-  </si>
-  <si>
-    <t>other energy suppliers</t>
-  </si>
-  <si>
-    <t>For bibliographic source and methods, see file output_shares_by_industry.xslx</t>
-  </si>
-  <si>
-    <t>in the InputData folder.</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Industry Category</t>
-  </si>
-  <si>
-    <t>non-energy industries</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>For commercial buildings, we divde between "nonenergy industries" and</t>
-  </si>
-  <si>
-    <t>the various energy industries based on output shares of GDP.  (We assume</t>
-  </si>
-  <si>
-    <t>that all residential buildings owned by industry are owned by "nonenergy</t>
-  </si>
-  <si>
-    <t>industries" - i.e. rental property management communities, nursing homes,</t>
-  </si>
-  <si>
-    <t>etc. - not energy industries.</t>
-  </si>
-  <si>
     <t>In the output tab, we show more decimal places than the source data</t>
   </si>
   <si>
@@ -297,96 +239,20 @@
     <t>provide in order to avoid rounding error in Vensim (each column must</t>
   </si>
   <si>
-    <t>Fraction of buildings owned by cash flow entity is used in cash flow calculations.</t>
-  </si>
-  <si>
     <t>Ownership by Cash Flow Entity (dimensionless)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Table CE1.4: consumption and expeditures in the South https://www.eia.gov/consumption/residential/data/2015/index.php?view=consumption#summary</t>
-  </si>
-  <si>
-    <t>Public Housing Calculation</t>
-  </si>
-  <si>
-    <t>1.2 Million public housing units in Texas</t>
-  </si>
-  <si>
-    <t>https://texaslawhelp.org/article/public-housing-general-information</t>
-  </si>
-  <si>
-    <t>6.8 Million renters in Texas</t>
-  </si>
-  <si>
-    <t>https://www.governing.com/gov-data/census/city-renter-population-housing-statistics.html</t>
-  </si>
-  <si>
-    <t>assume that public housing is 1.2/6.8 = 17.5% of the rental market</t>
-  </si>
-  <si>
-    <t>New data does not break renters down into public vs. not public. Assume that they are both equal to "Rented"</t>
-  </si>
-  <si>
-    <t>for the Residental tab, I recalculated their numbers</t>
-  </si>
-  <si>
-    <t>updated them from 2005 to 2015</t>
-  </si>
-  <si>
-    <t>updated them using numbers for the South instead of the whole US</t>
-  </si>
-  <si>
-    <t>For WSC region (TX, AR, OK, LA)</t>
-  </si>
-  <si>
-    <t>CBECS area (million sf)</t>
-  </si>
-  <si>
-    <t>area that is government owned (million sf)</t>
-  </si>
-  <si>
-    <t>Validation: for All US Regions</t>
-  </si>
-  <si>
-    <t>gov%</t>
-  </si>
-  <si>
-    <t>2012 CBECS for the WSC region</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/consumption/commercial/data/2012/index.php?view=characteristics</t>
-  </si>
-  <si>
-    <t>Updated the Residential and Commercial tabs using more recent data that was specific to the South or WestSouthCentral regions</t>
-  </si>
-  <si>
-    <t>Updated the "output_shares_by_industry.xlsx" file in the InputFiles folder. That data is now in the "Output by Industry Texas" tab</t>
-  </si>
-  <si>
-    <t>for the Commerical tab, I recalculated their numbers</t>
-  </si>
-  <si>
-    <t>updated them from 2005 to 2012</t>
-  </si>
-  <si>
-    <t>updated them using numbers for the WestSoutchCentral instead of the whole US</t>
-  </si>
-  <si>
-    <t>`</t>
+    <t>domestic industries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
@@ -454,14 +320,15 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,18 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +511,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -763,28 +618,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -819,11 +654,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1166,11 +998,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1247,54 +1077,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
+      <c r="A18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
-        <v>81</v>
+      <c r="A19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1311,9 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1330,20 +1128,20 @@
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1371,60 +1169,60 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="76" t="s">
+      <c r="O5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1586,85 +1384,85 @@
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="61"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1813,9 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2147,24 +1943,24 @@
       <c r="A16" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="81"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="69"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -2210,1066 +2006,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
-        <v>0.93219819361870848</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <v>1.5490855293616566E-2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <v>2.1866536828369144E-3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
-        <v>4.9443136381930888E-2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
-        <v>6.8116102290716575E-4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79304C6-D7BB-4DC8-99AF-FBCFB8DAB20B}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38617E42-AFD0-45A1-BD41-1B5DF9CDD014}">
-  <dimension ref="A1:V36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="D34:E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="16">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="18">
-        <v>0.74902100000000005</v>
-      </c>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="16">
-        <v>38.1</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="18">
-        <f>1-P7</f>
-        <v>0.25097899999999995</v>
-      </c>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="65">
-        <f>D8</f>
-        <v>38.1</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="61">
-        <f>P8*M22</f>
-        <v>4.392132499999999E-2</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="65">
-        <f>D8</f>
-        <v>38.1</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="62">
-        <f>P8*(1-M22)</f>
-        <v>0.20705767499999994</v>
-      </c>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L19" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="str">
-        <f>A6</f>
-        <v>Ownership</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
-        <f t="shared" ref="B21:B23" si="0">A7</f>
-        <v>Owned</v>
-      </c>
-      <c r="C21" s="26">
-        <f>(P7/D7)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
-        <v>0.76566529134424544</v>
-      </c>
-      <c r="L21" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Rented</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>Public Housing</v>
-      </c>
-      <c r="C23" s="26">
-        <f>(P9/D9)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
-        <v>4.1008574014757049E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="str">
-        <f>A10</f>
-        <v>Not Public Housing</v>
-      </c>
-      <c r="C24" s="26">
-        <f>(P10/D10)/SUM(P$7/D$7,P$9/D$9,P$10/D$10)</f>
-        <v>0.19332613464099752</v>
-      </c>
-      <c r="L24" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="26">
-        <f>SUM(C21:C24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="27">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="27">
-        <f>1-G30</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="32">
-        <f>C23</f>
-        <v>4.1008574014757049E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="33">
-        <f>C24*G31</f>
-        <v>4.8331533660249379E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="34">
-        <f>C21+(C24*G30)</f>
-        <v>0.91065989232499356</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B13:Q15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:Q6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" location="summary" display="https://www.eia.gov/consumption/residential/data/2015/index.php?view=consumption#summary" xr:uid="{94716F03-C1D8-49EC-8E93-A750813A6D60}"/>
-    <hyperlink ref="L19" r:id="rId2" xr:uid="{9CDCA3C2-EBD2-4918-9C4C-2253F9CDEC0D}"/>
-    <hyperlink ref="L20" r:id="rId3" xr:uid="{F5880D06-E0B4-4B9C-A256-0B5C8ABFEC94}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329AEAC7-F1A5-4DD7-AB84-1895C33C9D40}">
-  <dimension ref="A1:R23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19">
-        <v>94.5</v>
-      </c>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="R19" s="68">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="32">
-        <f>J21</f>
-        <v>0.25502645502645505</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20">
-        <v>24.1</v>
-      </c>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="R20" s="68">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="33">
-        <f>1-C20</f>
-        <v>0.74497354497354495</v>
-      </c>
-      <c r="I21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21">
-        <f>J20/J19</f>
-        <v>0.25502645502645505</v>
-      </c>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="R21" s="68">
-        <f>R20/R19</f>
-        <v>0.26315789473684209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="34">
-        <v>0</v>
-      </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F18:J18"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{E28FDE3B-275D-4AE3-BAA9-D243E2303A05}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE0B56-6C56-409A-92E4-27600D101DAE}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
-        <v>0.93559717276621335</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <v>7.4402497405008901E-3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <v>2.6206868640468771E-3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
-        <v>5.3133437532420051E-2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
-        <v>1.2084530968188268E-3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3280,8 +2023,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>82</v>
+      <c r="A1" s="70" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>57</v>
@@ -3297,47 +2040,47 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="58">
-        <f>'Residential Texas'!C34</f>
-        <v>4.1008574014757049E-2</v>
-      </c>
-      <c r="C2" s="58">
+      <c r="B2" s="57">
+        <f>Residential!C34</f>
+        <v>1.9289972368294446E-2</v>
+      </c>
+      <c r="C2" s="57">
         <f>B2</f>
-        <v>4.1008574014757049E-2</v>
-      </c>
-      <c r="D2" s="58">
-        <f>'Commercial Texas'!C20</f>
-        <v>0.25502645502645505</v>
+        <v>1.9289972368294446E-2</v>
+      </c>
+      <c r="D2" s="57">
+        <f>Commercial!C20</f>
+        <v>0.23714188688565077</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="58">
-        <f>'Residential Texas'!C35</f>
-        <v>4.8331533660249379E-2</v>
-      </c>
-      <c r="C3" s="58">
-        <f t="shared" ref="C3:C10" si="0">B3</f>
-        <v>4.8331533660249379E-2</v>
-      </c>
-      <c r="D3" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_nonenergy</f>
-        <v>0.6969951424628722</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="57">
+        <f>Residential!C35</f>
+        <v>3.6530988312536733E-2</v>
+      </c>
+      <c r="C3" s="57">
+        <f t="shared" ref="C3:C5" si="0">B3</f>
+        <v>3.6530988312536733E-2</v>
+      </c>
+      <c r="D3" s="57">
+        <f>Commercial!$C$21</f>
+        <v>0.76285811311434926</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="58">
-        <f>'Residential Texas'!C36</f>
-        <v>0.91065989232499356</v>
-      </c>
-      <c r="C4" s="58">
+        <v>60</v>
+      </c>
+      <c r="B4" s="57">
+        <f>Residential!C36</f>
+        <v>0.94417903931916869</v>
+      </c>
+      <c r="C4" s="57">
         <f t="shared" si="0"/>
-        <v>0.91065989232499356</v>
+        <v>0.94417903931916869</v>
       </c>
       <c r="D4">
         <f>Commercial!C22</f>
@@ -3351,7 +2094,7 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3359,87 +2102,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_elec</f>
-        <v>5.5427892246694465E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_coal</f>
-        <v>1.9523423833746048E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_ngps</f>
-        <v>3.958300531515737E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="58">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_bio</f>
-        <v>9.0026558747137995E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="57">
-        <f>'Commercial Texas'!$C$21*'Output by Industry Texas'!outputfrac_other</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>